--- a/data/obj_rule.xlsx
+++ b/data/obj_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91047B58-6F00-4062-8596-D8E1BB4FF19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275086D7-3137-41E3-98DF-A9D66402DA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="3100" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="5940" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>物体编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>EMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floor_1_light,|,floor_1_dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摧毁等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坐标长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵坐标长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图层内所属层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -401,9 +425,13 @@
     <col min="2" max="2" width="24.58203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +444,20 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -430,8 +470,20 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -444,8 +496,20 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -457,6 +521,44 @@
       </c>
       <c r="D4" t="s">
         <v>7</v>
+      </c>
+      <c r="E4">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/obj_rule.xlsx
+++ b/data/obj_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275086D7-3137-41E3-98DF-A9D66402DA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B277B5-131E-47B1-AB20-740DD0873183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="5940" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3950" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>物体编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>地图层内所属层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall_block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -561,6 +569,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>76</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>99</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/obj_rule.xlsx
+++ b/data/obj_rule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rhythm_Dungeon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B277B5-131E-47B1-AB20-740DD0873183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65404E11-AD58-4181-A8FA-047EF307D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3950" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="23470" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
